--- a/src/main/java/testdata/exceldata.xlsx
+++ b/src/main/java/testdata/exceldata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagarro-my.sharepoint.com/personal/piyush_dhamne_nagarro_com/Documents/Desktop/SeleniumEndtest/test/src/main/java/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyushdhamne\git\Selenium-Exit-Test\test\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC104848D1DB421A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A861E9-3D59-42CF-9CD0-32A9F9A9CD5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FD6CDD-F8DF-44AA-B16C-FABD92D3D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>mobile</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>8983002166</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -355,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -382,6 +388,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
